--- a/port_502.xlsx
+++ b/port_502.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -235,6 +235,9 @@
       </rPr>
       <t>PAULA FERRAZ DE MATOS</t>
     </r>
+  </si>
+  <si>
+    <t>FIM - PORTUGUÊS</t>
   </si>
 </sst>
 </file>
@@ -677,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,28 +871,33 @@
       </c>
       <c r="C20" s="3"/>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
